--- a/Schedule/2026 Master Schedule.xlsx
+++ b/Schedule/2026 Master Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10222"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bsleeter/Documents/Documents - Benjamin's MacBook Pro/GH Baseball/Schedule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A638AAB-EDDF-2845-87ED-E575C01D6E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F88146A-CEAB-2945-B7C3-AD7209D93F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="2100" windowWidth="25420" windowHeight="14500" xr2:uid="{DEE07C68-23DA-2F4F-8E1C-1A71F8558C8E}"/>
+    <workbookView xWindow="660" yWindow="3040" windowWidth="27300" windowHeight="14500" activeTab="1" xr2:uid="{DEE07C68-23DA-2F4F-8E1C-1A71F8558C8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="230">
   <si>
     <t>Date</t>
   </si>
@@ -462,6 +462,9 @@
     <t>Saturday, May 30, 2026</t>
   </si>
   <si>
+    <t>Varsity</t>
+  </si>
+  <si>
     <t>Sehmel #1</t>
   </si>
   <si>
@@ -492,15 +495,9 @@
     <t>Game vs Kelso</t>
   </si>
   <si>
-    <t>10:30 - 3:30pm</t>
-  </si>
-  <si>
     <t>Rogers HS</t>
   </si>
   <si>
-    <t>7:00 - 10:00 pm</t>
-  </si>
-  <si>
     <t xml:space="preserve">7:00 pm - 9:00 pm </t>
   </si>
   <si>
@@ -513,12 +510,6 @@
     <t>Game @ North Thurston</t>
   </si>
   <si>
-    <t>4:30 - 7:30 pm</t>
-  </si>
-  <si>
-    <t>4:00 - 7:00 pm</t>
-  </si>
-  <si>
     <t>River Ridge HS</t>
   </si>
   <si>
@@ -534,13 +525,208 @@
     <t>Bellarmine HS</t>
   </si>
   <si>
-    <t>9:30 - 2:30 pm</t>
-  </si>
-  <si>
     <t>Game vs West Seattle</t>
   </si>
   <si>
     <t>6:30 - 9:00 pm</t>
+  </si>
+  <si>
+    <t>Game vs Silas</t>
+  </si>
+  <si>
+    <t>Game @ Silas</t>
+  </si>
+  <si>
+    <t>Silas HS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:30-5:00 pm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:30 pm - 9:00 pm </t>
+  </si>
+  <si>
+    <t>Game @ Lincoln</t>
+  </si>
+  <si>
+    <t>Lincoln HS</t>
+  </si>
+  <si>
+    <t>Game vs Lincoln</t>
+  </si>
+  <si>
+    <t>Game vs Curtis</t>
+  </si>
+  <si>
+    <t>Cheney Stadium</t>
+  </si>
+  <si>
+    <t>Game vs Mt Tahoma</t>
+  </si>
+  <si>
+    <t>Game @ Mt Tahoma</t>
+  </si>
+  <si>
+    <t>Mt Tahoma HS</t>
+  </si>
+  <si>
+    <t>Game vs Central Kitsap</t>
+  </si>
+  <si>
+    <t>Game @ Central Kitsap</t>
+  </si>
+  <si>
+    <t>Central Kitsap HS</t>
+  </si>
+  <si>
+    <t>Game vs Peninsula</t>
+  </si>
+  <si>
+    <t>Game vs Capital</t>
+  </si>
+  <si>
+    <t>Game @ Timberline</t>
+  </si>
+  <si>
+    <t>Timberline HS</t>
+  </si>
+  <si>
+    <t>JV</t>
+  </si>
+  <si>
+    <t>C Team</t>
+  </si>
+  <si>
+    <t>GHHS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:00 - 9:00 pm </t>
+  </si>
+  <si>
+    <t>Sehmel #2</t>
+  </si>
+  <si>
+    <t>Game vs Rogers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Game vs Puyallup </t>
+  </si>
+  <si>
+    <t>Game at River Ridge</t>
+  </si>
+  <si>
+    <t>Game at North Thurston</t>
+  </si>
+  <si>
+    <t>Game at Bellarmine</t>
+  </si>
+  <si>
+    <t>Game at Silas</t>
+  </si>
+  <si>
+    <t>Game at Lincoln</t>
+  </si>
+  <si>
+    <t>Game at Curtis</t>
+  </si>
+  <si>
+    <t>Game vs Mount Tahoma</t>
+  </si>
+  <si>
+    <t>Game at Mount Tahoma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Game vs Central Kitsap </t>
+  </si>
+  <si>
+    <t>Game at Central Kitsap</t>
+  </si>
+  <si>
+    <t>Game at Timberline</t>
+  </si>
+  <si>
+    <t>11am, 1pm</t>
+  </si>
+  <si>
+    <t>Game @ North Kitsap</t>
+  </si>
+  <si>
+    <t>4pm</t>
+  </si>
+  <si>
+    <t>Game vs PHS</t>
+  </si>
+  <si>
+    <t>Game vs South Kitsap</t>
+  </si>
+  <si>
+    <t>11am, 2pm</t>
+  </si>
+  <si>
+    <t>PRC</t>
+  </si>
+  <si>
+    <t>3:30pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Game @ Puyallup </t>
+  </si>
+  <si>
+    <t>Game vs Seillacoom (DH)</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Game vs PHS </t>
+  </si>
+  <si>
+    <t>11am</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Game vs North Kitsap </t>
+  </si>
+  <si>
+    <t>Game at PHS</t>
+  </si>
+  <si>
+    <t>PHS</t>
+  </si>
+  <si>
+    <t>Sehmel</t>
+  </si>
+  <si>
+    <t>2pm</t>
+  </si>
+  <si>
+    <t>4:30pm</t>
+  </si>
+  <si>
+    <t>6pm</t>
+  </si>
+  <si>
+    <t>12pm</t>
+  </si>
+  <si>
+    <t>7pm</t>
+  </si>
+  <si>
+    <t>3pm</t>
+  </si>
+  <si>
+    <t>5:00 - 9:00 pm (JV Practice)</t>
+  </si>
+  <si>
+    <t>Curtis HS</t>
+  </si>
+  <si>
+    <t>7:00 - 9:00 pm</t>
+  </si>
+  <si>
+    <t>2:30 - 5:00 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:30-6:30 pm </t>
   </si>
 </sst>
 </file>
@@ -576,15 +762,39 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -592,16 +802,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="18" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="18" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -936,10 +1181,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{562023BF-77AD-5D42-89FC-B1A3437B3F8A}">
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="116" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -951,7 +1196,7 @@
     <col min="5" max="5" width="28.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -967,8 +1212,9 @@
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>51</v>
       </c>
@@ -983,7 +1229,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>52</v>
       </c>
@@ -998,7 +1244,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>53</v>
       </c>
@@ -1013,7 +1259,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>54</v>
       </c>
@@ -1028,7 +1274,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>55</v>
       </c>
@@ -1043,7 +1289,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>56</v>
       </c>
@@ -1054,7 +1300,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>57</v>
       </c>
@@ -1063,7 +1309,7 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>58</v>
       </c>
@@ -1078,7 +1324,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>59</v>
       </c>
@@ -1093,7 +1339,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>60</v>
       </c>
@@ -1108,7 +1354,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>61</v>
       </c>
@@ -1123,7 +1369,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>62</v>
       </c>
@@ -1138,7 +1384,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>63</v>
       </c>
@@ -1151,7 +1397,7 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>64</v>
       </c>
@@ -1160,7 +1406,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>65</v>
       </c>
@@ -2185,1675 +2431,3116 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F3AEC27-1393-EE4D-8299-CB18931D244E}">
-  <dimension ref="A1:H91"/>
+  <dimension ref="A1:N92"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="116" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="116" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I6" sqref="I6:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="31.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5" customWidth="1"/>
+    <col min="6" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="27.1640625" customWidth="1"/>
+    <col min="9" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="26.33203125" customWidth="1"/>
+    <col min="12" max="12" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B1" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="D8" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="H10" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="E11" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I12" s="11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="J12" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I13" s="11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="J13" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="G14" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="H14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="J15" s="11"/>
+      <c r="K15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="E17" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="E20" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="K20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="L20" s="2"/>
+      <c r="M20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="H21" s="13"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="G24" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
+      <c r="H24" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="M31" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="N31" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="K34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="L34" s="2"/>
+      <c r="M34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="H38" s="13"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="K40" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="L40" s="2"/>
+      <c r="M40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="I42" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="H43" s="13"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I45" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="J46" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="H47" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="I47" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="J47" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="G48" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="2" t="s">
+      <c r="H48" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J48" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I53" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="J53" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="H55" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I55" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J55" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I56" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J56" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="H57" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="I57" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="J57" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="H59" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I59" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J59" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="H60" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="I60" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="J60" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N60" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C18" s="2" t="s">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="H61" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I61" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="J61" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N61" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H62" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I62" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J62" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N62" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="H63" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I63" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J63" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N63" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="I64" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="J64" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" s="2" t="s">
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="15"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H66" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I66" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J66" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E19" s="2" t="s">
+      <c r="N66" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="H67" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I67" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J67" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N67" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H68" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I68" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J68" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="K68" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2" t="s">
+      <c r="L68" s="2"/>
+      <c r="M68" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="N68" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E23" s="2" t="s">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="H69" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I69" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J69" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N69" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H70" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="I70" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="J70" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="K70" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H24" s="2" t="s">
+      <c r="L70" s="2"/>
+      <c r="M70" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="N70" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B72" s="15"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="15"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N73" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N74" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C26" s="2" t="s">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M75" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N75" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C76" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D76" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N76" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D77" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M77" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N77" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2" t="s">
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H79" s="2" t="s">
+      <c r="L80" s="2"/>
+      <c r="M80" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N80" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H80" s="2" t="s">
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M81" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N81" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2" t="s">
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H81" s="2" t="s">
+      <c r="L82" s="2"/>
+      <c r="M82" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N82" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H82" s="2" t="s">
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M83" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N83" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L84" s="2"/>
+      <c r="M84" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N84" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I85" s="2"/>
+      <c r="J85" s="2"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2"/>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2"/>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H86" s="2" t="s">
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M87" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N87" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2" t="s">
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H87" s="2" t="s">
+      <c r="L88" s="2"/>
+      <c r="M88" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N88" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H88" s="2" t="s">
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M89" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N89" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="2" t="s">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2" t="s">
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H89" s="2" t="s">
+      <c r="L90" s="2"/>
+      <c r="M90" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N90" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H90" s="2" t="s">
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M91" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N91" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="2" t="s">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>